--- a/Output_testing/R1_201907/Country/HKD/MN/AUSTRIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/AUSTRIA_201907_HKD_MN.xlsx
@@ -810,136 +810,439 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>1157.487232</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>24.28118858275027</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>1260.340452</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>25.04383985345779</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>2227.886431</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>35.06011967450294</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>1634.262877</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>43.56820162596474</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>56.57591990988611</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>664.348098</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>13.93636232535951</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>614.668934</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>12.21389849192242</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>638.008242</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>10.04029873632245</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>348.324456</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>9.286064282461506</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>3.39639299683745</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>322.989028</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>6.775502383275714</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>417.98011</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>8.305554995207496</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>518.10591</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>8.153402685124236</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>293.125597</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>7.814504809208417</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-3.762098922202706</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>200.252743</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>4.200801946293974</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>624.583575</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>12.41090929246802</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>563.110492</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>8.861637184363385</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>207.237182</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>5.524785184099088</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-39.44381768125302</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>331.229362</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>6.948363990995676</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>371.79105</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>7.387746303289264</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>402.237547</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>6.329988970339262</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>159.37369</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.248780999382635</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-25.66901572230654</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>MOTORCYCLES (INCLUDING MOPEDS) AND CYCLES, MOTORIZED AND NON-MOTORIZED; INVALID CARRIAGES</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>6.195615</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.1299685145910243</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>4.292141</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.08528782176425787</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>10.517083</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.1655067257809787</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>89.56317</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.387685790173251</v>
+      </c>
+      <c r="K23" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>207.060576</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>4.343613264071751</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>209.792755</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>4.168727703929721</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>179.320828</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2.821961479871753</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>85.06499100000001</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.267767769406951</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-21.42231073430191</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>183.550835</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>3.850437668720893</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>190.22705</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>3.779943560833758</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>170.650049</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.685509933158613</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>79.044735</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.107272336916059</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-21.74542414622259</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>284.42876</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>5.966604355526764</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>145.80708</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>2.897287915519757</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>206.724367</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>3.25320938527493</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>73.87531300000001</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.969459489818206</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-45.93835937977382</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>1.437423</v>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>1.683624</v>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>61.42993</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.9667192489832703</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>70.14212999999999</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.869935678845277</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>489.9293191266788</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>1408.032569</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>29.5370034272165</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>1191.37001</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>23.67334928376354</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>1376.483811</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>21.66164597627817</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>711.030924</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>18.95554203372387</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-9.378675603877241</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1274,481 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>COPPER</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>1.885064</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>10.11521455305121</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>13.726984</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>44.59197644298677</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>17.46632</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>35.79409798804213</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>9.569273000000001</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>44.78634261917887</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-18.33762541396454</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>5.664893</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>30.39769902511423</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>13.053867</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>42.40536229618118</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>22.764039</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>46.65082527799861</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>8.713772000000001</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>40.78240617624844</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>26.69563071837313</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>0.6266819997738776</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.1695159771967665</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>1.775903</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>3.63939547650896</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>0.955786</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>4.473292722092315</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>85.0881592579324</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>2.262441787843449</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>0.6773</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>2.200202582361496</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>1.4259</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>2.922126946096789</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>0.863336</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>4.040605999167482</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-13.67995224749714</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>1.062224</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>5.699872080417572</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>0.750138</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>2.436816129820594</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>0.7498939999999999</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>1.536773591497514</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>2.304565773951351</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>13.09801345494386</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>1.108606</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>5.948756935997871</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>0.730916</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>2.374373646374332</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>0.845961</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>1.733645720910994</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>1.651389010964736</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>120.6792169616612</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>0.595866</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>3.19740466894939</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>1.564245606798363</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.9502128096995515</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>1.077649692523314</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-20.5707031681201</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>1.522559087079489</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.493172826286421</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.3166426513558882</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.3304519065314306</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-37.02415355524635</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>MOTORCYCLES (INCLUDING MOPEDS) AND CYCLES, MOTORIZED AND NON-MOTORIZED; INVALID CARRIAGES</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.2372873645461226</v>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>0.57579</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>3.089677266926405</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.3918783970479798</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.3643877341738719</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.1752463131768248</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>37.32350460263323</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>6.921326</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>37.1396925948465</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>1.038161</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>3.372456094946099</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>2.972639</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>6.091891803715698</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>0.1407624216191161</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-98.61260647862402</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1780,439 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>1157.487232</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>24.37648483308478</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>1260.340452</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>25.19797336056193</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>2227.886431</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>35.33143329172213</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>1634.262877</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>43.81779415148191</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>56.57591990988611</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>658.683205</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>13.87175660568338</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>601.615067</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>12.02808368764369</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>615.244203</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>9.756987256597393</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>339.610684</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>9.105628753235132</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>2.910807276006389</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>322.989028</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>6.802094161065265</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>417.98011</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>8.356671929645202</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>518.10591</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>8.216497996711389</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>293.125597</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>7.85927236715678</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-3.762098922202706</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>200.252743</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>4.217288811115909</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>624.583575</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>12.48729282577572</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>562.407931</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>8.919071466287845</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>207.237182</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>5.556435448181076</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-39.44381768125302</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>331.229362</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>6.975634197808021</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>371.79105</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>7.433214540348142</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>402.237547</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>6.378973749069189</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>159.37369</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>4.273121319626041</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-25.66901572230654</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>MOTORCYCLES (INCLUDING MOPEDS) AND CYCLES, MOTORIZED AND NON-MOTORIZED; INVALID CARRIAGES</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>6.195615</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.1304786013217401</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>4.292141</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.08581272973199439</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>10.517083</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.1667875037378891</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>89.51246999999999</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.400004943911297</v>
+      </c>
+      <c r="K49" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>207.060576</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>4.360660619705046</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>209.763262</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>4.193794684216462</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>179.320828</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.843799299704239</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>85.06499100000001</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.280759305980161</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-21.42231073430191</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>181.945024</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>3.83173135337984</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>189.799509</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>3.794659581100023</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>169.042777</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.680802538189596</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>79.044735</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.119344430895028</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-20.48419508303678</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>284.072223</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>5.982512846811408</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>145.80708</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>2.91511941221206</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>206.724367</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>3.278384427861342</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>73.87531300000001</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.980742084683782</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-45.93835937977382</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>1.437423</v>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>1.683624</v>
+      </c>
+      <c r="F53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>61.42993</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.9742002301867604</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>70.14212999999999</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.880648123959364</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>489.9293191266788</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>1397.023883</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>29.42108608538561</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>1174.097382</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>23.47371657189458</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>1352.761035</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>21.45306223993223</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>698.428898</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>18.72624907088944</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-9.270537490885001</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2244,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>285.804475</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>9.457361118293457</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>305.633309</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>10.83259209907131</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>249.300143</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>9.317099868159486</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>212.15429</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>13.08415518909781</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>39.95046150691743</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>GLASSWARE</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>435.145876</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>14.39911564879502</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>313.460404</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>11.11000861408761</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>186.974399</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>6.987798431676389</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>157.819562</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>9.733178815679118</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>26.57234474491812</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>208.512866</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>6.89975715590994</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>257.886071</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>9.14028194215946</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>181.811266</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>6.794836545595201</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>148.19037</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>9.139319306764076</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>41.81448437984199</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>48.813556</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>1.615256117176053</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>47.908507</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.698026030292734</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>97.04968100000001</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>3.627039917301694</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>119.684601</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>7.381287897733538</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>163.8722352767962</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>148.553061</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>4.915668108782677</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>180.041351</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>6.381223704739343</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>191.601945</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>7.160743812724574</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>106.22157</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>6.550984692836599</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-6.878003659424703</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>124.455244</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>4.118263668101505</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>127.946892</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>4.534834556857578</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>119.638953</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>4.471269289336265</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>73.689916</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>4.544665567760058</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-4.449344862650085</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>28.718818</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.9503148357510717</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>23.449318</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.8311165354539632</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>95.92642600000001</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>3.585060482847821</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>71.784571</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>4.427157551925113</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>49.56204841122318</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>99.35966000000001</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>3.287842799560285</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>114.449493</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>4.05644488708041</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>137.893739</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>5.153505818313625</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>58.54225</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>3.610466157054668</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-30.08611211248695</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF BASE METAL, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>31.098824</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.029069992421397</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>37.968775</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.345731109682211</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>58.918155</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>2.201949535916232</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>34.575518</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.132369999472765</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-20.28942883983699</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>136.699861</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>4.523441945048341</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>155.256331</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>5.502765749008725</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>99.011634</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>3.700364031029278</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>33.198642</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>2.047454161757939</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-32.0893266442675</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>1474.869713</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>48.80390861016025</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>1257.42314</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>44.56697477156666</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>1257.600511</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>47.00033226709944</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>605.598307</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>37.34896065991831</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-21.76831137767643</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
